--- a/data/Capricoin/Capricoin20200630.xlsx
+++ b/data/Capricoin/Capricoin20200630.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3292,6 +3292,24 @@
         </is>
       </c>
       <c r="D159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Capricoin</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2020/12/05</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
         <v>0</v>
       </c>
     </row>
